--- a/static/files/school.xlsx
+++ b/static/files/school.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="40">
   <si>
     <t>Id</t>
   </si>
@@ -79,28 +79,16 @@
     <t>c2Email</t>
   </si>
   <si>
-    <t>bvrit</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
     <t>griet</t>
   </si>
   <si>
-    <t>ghj</t>
-  </si>
-  <si>
-    <t>Government</t>
-  </si>
-  <si>
-    <t>GH@GGJ.VOM</t>
-  </si>
-  <si>
-    <t>djkk</t>
-  </si>
-  <si>
-    <t>Bihar</t>
+    <t>mn</t>
+  </si>
+  <si>
+    <t>m</t>
+  </si>
+  <si>
+    <t>nm</t>
   </si>
   <si>
     <t>teja@gmail.com</t>
@@ -109,34 +97,16 @@
     <t>teja</t>
   </si>
   <si>
-    <t>wdeded</t>
-  </si>
-  <si>
-    <t>fgh</t>
-  </si>
-  <si>
-    <t>jkl</t>
-  </si>
-  <si>
-    <t>xcvb</t>
-  </si>
-  <si>
-    <t>yuio</t>
-  </si>
-  <si>
-    <t>nm,</t>
-  </si>
-  <si>
-    <t>yui</t>
+    <t>n</t>
   </si>
   <si>
     <t>abcd</t>
   </si>
   <si>
-    <t>ghjk</t>
-  </si>
-  <si>
-    <t>fggg</t>
+    <t>yo</t>
+  </si>
+  <si>
+    <t>fgggjjj</t>
   </si>
   <si>
     <t>Private</t>
@@ -512,7 +482,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V4"/>
+  <dimension ref="A1:V3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -590,169 +560,135 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C2" t="s">
         <v>21</v>
       </c>
-      <c r="D2" t="s"/>
-      <c r="E2" t="s"/>
+      <c r="D2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" t="s">
+        <v>22</v>
+      </c>
       <c r="F2" t="s">
         <v>22</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I2" t="s">
+        <v>22</v>
+      </c>
       <c r="J2" t="s">
-        <v>22</v>
-      </c>
-      <c r="K2" t="s"/>
-      <c r="L2" t="s"/>
-      <c r="M2" t="s"/>
-      <c r="N2" t="s"/>
-      <c r="O2" t="s"/>
-      <c r="P2" t="s"/>
-      <c r="Q2" t="s"/>
-      <c r="R2" t="s"/>
-      <c r="S2" t="s"/>
-      <c r="T2" t="s"/>
-      <c r="U2" t="s"/>
-      <c r="V2" t="s"/>
+        <v>23</v>
+      </c>
+      <c r="K2" t="s">
+        <v>24</v>
+      </c>
+      <c r="L2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M2" t="s">
+        <v>26</v>
+      </c>
+      <c r="N2" t="s">
+        <v>24</v>
+      </c>
+      <c r="O2" t="s">
+        <v>24</v>
+      </c>
+      <c r="P2" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>24</v>
+      </c>
+      <c r="R2" t="s">
+        <v>27</v>
+      </c>
+      <c r="S2" t="s">
+        <v>22</v>
+      </c>
+      <c r="T2" t="s">
+        <v>22</v>
+      </c>
+      <c r="U2" t="s">
+        <v>23</v>
+      </c>
+      <c r="V2" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="3" spans="1:22">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="E3" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="F3" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="G3" t="n">
-        <v>5555555555</v>
+        <v>6666666666</v>
       </c>
       <c r="H3" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="I3" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="J3" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="K3" t="n">
-        <v>6666666</v>
+        <v>555555</v>
       </c>
       <c r="L3" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="M3" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="N3" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="O3" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="P3" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="Q3" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="R3" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="S3" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="T3" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="U3" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="V3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="4" spans="1:22">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="n">
-        <v>3</v>
-      </c>
-      <c r="C4" t="s">
-        <v>38</v>
-      </c>
-      <c r="D4" t="s">
         <v>39</v>
-      </c>
-      <c r="E4" t="s">
-        <v>40</v>
-      </c>
-      <c r="F4" t="s">
-        <v>41</v>
-      </c>
-      <c r="G4" t="n">
-        <v>6666666666</v>
-      </c>
-      <c r="H4" t="s">
-        <v>42</v>
-      </c>
-      <c r="I4" t="s">
-        <v>43</v>
-      </c>
-      <c r="J4" t="s">
-        <v>44</v>
-      </c>
-      <c r="K4" t="n">
-        <v>555555</v>
-      </c>
-      <c r="L4" t="s">
-        <v>45</v>
-      </c>
-      <c r="M4" t="s">
-        <v>46</v>
-      </c>
-      <c r="N4" t="s">
-        <v>47</v>
-      </c>
-      <c r="O4" t="s">
-        <v>48</v>
-      </c>
-      <c r="P4" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>49</v>
-      </c>
-      <c r="R4" t="s">
-        <v>48</v>
-      </c>
-      <c r="S4" t="s">
-        <v>48</v>
-      </c>
-      <c r="T4" t="s">
-        <v>49</v>
-      </c>
-      <c r="U4" t="s">
-        <v>48</v>
-      </c>
-      <c r="V4" t="s">
-        <v>49</v>
       </c>
     </row>
   </sheetData>
